--- a/Outputs/1. Budget/Output Files/1750000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260799.652011603</v>
+        <v>2260053.935530042</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>129.9936595554759</v>
       </c>
       <c r="H2" t="n">
-        <v>311.4936872159398</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>154.7813293598786</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.03250833503009</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.47555601903397</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2994412657493</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806818</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.31590541686268</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>97.4271589199805</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>50.37907584939722</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.9576419790507</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431766</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>101.9166902817493</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>111.2944539985318</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>104.4356141147667</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>121.1754380856767</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>33.35146980185879</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>22.71958750778553</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>8.070639042240128</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.861721009454365</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>25.37433807241436</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>58.40168825977442</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>183.1796758467</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.5492509541</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1941.586734013689</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.321035406938</v>
+        <v>577.9834619915252</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.532782808694</v>
+        <v>192.195209393281</v>
       </c>
       <c r="F2" t="n">
-        <v>786.5468780190865</v>
+        <v>185.2497086440775</v>
       </c>
       <c r="G2" t="n">
-        <v>368.5830699172734</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2697.149091018222</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4400,40 +4400,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>575.4989583075089</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>217.2332597007584</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>217.2332597007584</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>210.287758951555</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>411.2797076961344</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>264.3897601982241</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655647</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>378.1446555862794</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037878</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>807.393450832883</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>396.4075460432754</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018223</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>764.7444956504012</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,22 +4886,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761948</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482879</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359522</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355909</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355909</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>79.51460345355909</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>79.51460345355909</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>79.51460345355909</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.785243411008</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555207</v>
+        <v>316.9584588710877</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619849</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>544.6416868225887</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>993.4238168641361</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557903</v>
+        <v>765.4342659661188</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>544.6416868225887</v>
       </c>
     </row>
     <row r="14">
@@ -5254,55 +5254,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1301.989359467952</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1078.203944257458</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,28 +5515,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5706,19 +5706,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1075.21084526296</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,34 +5819,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>471.5883316929525</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="C22" t="n">
-        <v>471.5883316929525</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="D22" t="n">
-        <v>471.5883316929525</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="E22" t="n">
-        <v>471.5883316929525</v>
+        <v>517.7728799462208</v>
       </c>
       <c r="F22" t="n">
-        <v>471.5883316929525</v>
+        <v>370.8829324483104</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>202.707610768131</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655744</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344999</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364826</v>
+        <v>665.6859735286139</v>
       </c>
       <c r="Y22" t="n">
-        <v>471.5883316929525</v>
+        <v>665.6859735286139</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>799.8610847926847</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>799.8610847926847</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>649.7444453803489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>981.5095496229244</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>981.5095496229244</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6311,22 +6311,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>953.6472828615138</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954967</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9054447954967</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9054447954967</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>130.9054447954967</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>130.9054447954967</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>130.9054447954967</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>130.9054447954967</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324574</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954967</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954967</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
         <v>1460.082827585746</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150545</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>931.8655340243621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6691,10 +6691,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6718,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.19758416447</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,19 +6861,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
         <v>1460.082827585746</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6931,7 +6931,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,7 +6940,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7031,7 +7031,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.2896273329885</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.2896273329885</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.1729879206528</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7098,19 +7098,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
         <v>1460.082827585746</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.78763177146</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655735</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W37" t="n">
-        <v>665.685973528613</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X37" t="n">
-        <v>437.6964226305956</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.9038434870655</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,10 +7192,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,13 +7253,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643586</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>441.9005583181187</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,16 +7402,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3627.330715596855</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4801.86296871149</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4801.86296871149</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4801.86296871149</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4801.86296871149</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>4547.178480505603</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>4257.761310468642</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>4029.771759570625</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>3808.979180427095</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,16 +7660,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093294</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814589</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>29.47535963978228</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>29.47535963978235</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9959,10 +9959,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>32.78140656352406</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208072</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P33" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,10 +10679,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208072</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>236.1439224871938</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>2.963168004552585</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>65.33013081687855</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>55.19911446484576</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>44.47821425276943</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>25.25852456089245</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>77.0677756624132</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>202.9900678812516</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>171.7613411396972</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.34209567542541</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>143.5722416371148</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,22 +25362,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>200.3353173166228</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>51.56266414401838</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>103.0576765518773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109151</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109152</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109154</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109153</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>574729.238904999</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.238904999</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049989</v>
-      </c>
       <c r="E2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="F2" t="n">
         <v>547440.6836327921</v>
       </c>
       <c r="G2" t="n">
+        <v>547440.6836327919</v>
+      </c>
+      <c r="H2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="I2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="M2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="O2" t="n">
-        <v>547440.683632792</v>
       </c>
       <c r="P2" t="n">
         <v>547440.683632792</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="C4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453288</v>
       </c>
       <c r="D4" t="n">
-        <v>171008.2365831803</v>
+        <v>170145.3182453287</v>
       </c>
       <c r="E4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="F4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="G4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="H4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="I4" t="n">
-        <v>26500.76044945709</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="K4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="L4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253063</v>
       </c>
       <c r="M4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="N4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="O4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253064</v>
       </c>
       <c r="P4" t="n">
-        <v>26500.7604494571</v>
+        <v>25806.27477253064</v>
       </c>
     </row>
     <row r="5">
@@ -26475,28 +26475,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-269105.9549561354</v>
+        <v>-268243.0366182837</v>
       </c>
       <c r="C6" t="n">
-        <v>320861.924258409</v>
+        <v>321724.8425962608</v>
       </c>
       <c r="D6" t="n">
-        <v>320861.9242584091</v>
+        <v>321724.8425962605</v>
       </c>
       <c r="E6" t="n">
-        <v>-96207.43924227788</v>
+        <v>-96487.54482507272</v>
       </c>
       <c r="F6" t="n">
-        <v>428952.5972346185</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="G6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="H6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518228</v>
       </c>
       <c r="I6" t="n">
-        <v>428952.5972346186</v>
+        <v>428672.4916518234</v>
       </c>
       <c r="J6" t="n">
-        <v>252529.3780420252</v>
+        <v>252249.2724592302</v>
       </c>
       <c r="K6" t="n">
-        <v>428952.5972346189</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="L6" t="n">
-        <v>428952.5972346182</v>
+        <v>428672.4916518234</v>
       </c>
       <c r="M6" t="n">
-        <v>294151.5820007813</v>
+        <v>293871.4764179859</v>
       </c>
       <c r="N6" t="n">
-        <v>428952.5972346182</v>
+        <v>428672.4916518232</v>
       </c>
       <c r="O6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.4916518229</v>
       </c>
       <c r="P6" t="n">
-        <v>428952.5972346183</v>
+        <v>428672.491651823</v>
       </c>
     </row>
   </sheetData>
@@ -26743,37 +26743,37 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>283.790510465319</v>
       </c>
       <c r="H2" t="n">
-        <v>12.42908554841733</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>259.0028406609164</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>4.167450853506899</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>231.8063182229438</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.97345050525826</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>74.74425144011315</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>19.8840537716743</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>121.1574944321143</v>
       </c>
     </row>
     <row r="11">
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,43 +33338,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,10 +33493,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215733</v>
@@ -33505,7 +33505,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33514,10 +33514,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33593,7 +33593,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,10 +33605,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
         <v>0.08167695791351813</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,10 +33730,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215733</v>
@@ -33742,7 +33742,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>452.5584109724845</v>
@@ -33751,10 +33751,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33830,7 +33830,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,10 +33842,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
         <v>0.08167695791351813</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,10 +33967,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215733</v>
@@ -33979,7 +33979,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
@@ -33988,10 +33988,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34067,7 +34067,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34079,10 +34079,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
         <v>0.08167695791351813</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624592</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330526</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>180.0507982277215</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,7 +35886,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>282.0391115195484</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523318</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686861</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299105</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056036</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349858</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523318</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299105</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056036</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299105</v>
@@ -37709,7 +37709,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/1750000/Output_4_28.xlsx
+++ b/Outputs/1. Budget/Output Files/1750000/Output_4_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2260053.935530042</v>
+        <v>2264993.198379072</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>129.9936595554759</v>
+        <v>105.5850900274452</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>362.4006936231289</v>
       </c>
       <c r="G5" t="n">
-        <v>154.7813293598786</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>41.03250833503009</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>14.19510348422553</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>300.2994412657493</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.4271589199805</v>
+        <v>155.211488636581</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>101.9557483937993</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>50.37907584939722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>67.20739854797273</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>194.9576419790507</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>104.4356141147667</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>237.6821551249385</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431768</v>
+        <v>195.815584166324</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3088,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.070639042240128</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.861721009454365</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>204.1291651532057</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>169.7438101404427</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="D2" t="n">
-        <v>577.9834619915252</v>
+        <v>553.3283412561407</v>
       </c>
       <c r="E2" t="n">
-        <v>192.195209393281</v>
+        <v>167.5400886578964</v>
       </c>
       <c r="F2" t="n">
-        <v>185.2497086440775</v>
+        <v>160.594587908693</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>944.4614752479206</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>575.4989583075089</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>217.2332597007584</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>217.2332597007584</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>210.287758951555</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1331.061315312042</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>264.3897601982241</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>95.38995993655647</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4783,7 +4783,7 @@
         <v>378.1446555862794</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>378.1446555862794</v>
       </c>
       <c r="D8" t="n">
         <v>74.81188663097703</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>210.7222632714564</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.3007934237124</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>316.9584588710877</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>544.6416868225887</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C13" t="n">
-        <v>544.6416868225887</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1395.930666119722</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1106.80202733328</v>
       </c>
       <c r="V13" t="n">
-        <v>1044.311772267568</v>
+        <v>852.117539127393</v>
       </c>
       <c r="W13" t="n">
-        <v>993.4238168641361</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="X13" t="n">
-        <v>765.4342659661188</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y13" t="n">
-        <v>544.6416868225887</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="14">
@@ -5272,34 +5272,34 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5345,37 +5345,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2507.25999687553</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>782.4872769945467</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>613.5510940666398</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>463.4344546543041</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>315.521361071911</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>315.521361071911</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1301.989359467952</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1078.203944257458</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>789.0753054710162</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V16" t="n">
-        <v>789.0753054710162</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W16" t="n">
-        <v>499.6581354340557</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>964.1357418247865</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,37 +5582,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,28 +5691,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>665.6859735286139</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>665.6859735286139</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>665.6859735286139</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7728799462208</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>370.8829324483104</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>202.707610768131</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5910,16 +5910,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655744</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286139</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286139</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>665.6859735286139</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5995,46 +5995,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6217,7 +6217,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6387,13 +6387,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557902</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557902</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557902</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,25 +6466,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336716</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6934,55 +6934,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>415.1729879206528</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>786.0822064765186</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311522</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,16 +7350,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7399,49 +7399,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262065</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415411</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>268.6754855415411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093294</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.47535963978228</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165113</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>29.47535963978235</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>285.1031356539323</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735861</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>119.59181266459</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>236.1439224871938</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>99.28616991540486</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>2.963168004552585</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24135,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>44.47821425276943</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>48.8408432116525</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.278393308918</v>
+        <v>22.76906918577083</v>
       </c>
     </row>
     <row r="29">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>23.17774625772566</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.7613411396972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>143.5722416371148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>10.08817004149455</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
         <v>82.39383318338568</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>849676.7773109151</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>849676.7773109154</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>849676.7773109153</v>
+        <v>849676.7773109152</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049991</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
-        <v>547440.6836327922</v>
+        <v>547440.6836327921</v>
       </c>
       <c r="F2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.683632792</v>
       </c>
       <c r="G2" t="n">
         <v>547440.6836327919</v>
       </c>
       <c r="H2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="I2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="N2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="O2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="I2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="J2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="L2" t="n">
-        <v>547440.6836327923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>547440.6836327919</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.683632792</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>170145.3182453287</v>
       </c>
       <c r="C4" t="n">
+        <v>170145.3182453287</v>
+      </c>
+      <c r="D4" t="n">
         <v>170145.3182453288</v>
-      </c>
-      <c r="D4" t="n">
-        <v>170145.3182453287</v>
       </c>
       <c r="E4" t="n">
         <v>25806.27477253063</v>
       </c>
       <c r="F4" t="n">
-        <v>25806.27477253063</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="G4" t="n">
-        <v>25806.27477253064</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="H4" t="n">
         <v>25806.27477253063</v>
@@ -26441,22 +26441,22 @@
         <v>25806.27477253063</v>
       </c>
       <c r="J4" t="n">
+        <v>25806.27477253062</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25806.27477253062</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25806.27477253062</v>
+      </c>
+      <c r="M4" t="n">
         <v>25806.27477253063</v>
       </c>
-      <c r="K4" t="n">
-        <v>25806.27477253063</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25806.27477253063</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25806.27477253064</v>
-      </c>
       <c r="N4" t="n">
-        <v>25806.27477253064</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="O4" t="n">
-        <v>25806.27477253064</v>
+        <v>25806.27477253062</v>
       </c>
       <c r="P4" t="n">
         <v>25806.27477253064</v>
@@ -26478,40 +26478,40 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268243.0366182837</v>
+        <v>-268243.0366182836</v>
       </c>
       <c r="C6" t="n">
-        <v>321724.8425962608</v>
+        <v>321724.8425962607</v>
       </c>
       <c r="D6" t="n">
-        <v>321724.8425962605</v>
+        <v>321724.8425962604</v>
       </c>
       <c r="E6" t="n">
-        <v>-96487.54482507272</v>
+        <v>-95610.41269132374</v>
       </c>
       <c r="F6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="G6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855724</v>
       </c>
       <c r="H6" t="n">
-        <v>428672.4916518228</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="I6" t="n">
-        <v>428672.4916518234</v>
+        <v>429549.6237855723</v>
       </c>
       <c r="J6" t="n">
-        <v>252249.2724592302</v>
+        <v>253126.40459298</v>
       </c>
       <c r="K6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855723</v>
       </c>
       <c r="L6" t="n">
-        <v>428672.4916518234</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="M6" t="n">
-        <v>293871.4764179859</v>
+        <v>294748.6085517355</v>
       </c>
       <c r="N6" t="n">
-        <v>428672.4916518232</v>
+        <v>429549.6237855725</v>
       </c>
       <c r="O6" t="n">
-        <v>428672.4916518229</v>
+        <v>429549.6237855727</v>
       </c>
       <c r="P6" t="n">
-        <v>428672.491651823</v>
+        <v>429549.6237855727</v>
       </c>
     </row>
   </sheetData>
@@ -26740,43 +26740,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>283.790510465319</v>
+        <v>308.1990799933498</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>44.47535211858258</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>259.0028406609164</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>4.167450853506899</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523655</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>64.97345050525826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>54.38360035493366</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.1574944321143</v>
+        <v>63.37316471551381</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>180.0507982277215</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.4883924248565</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560245</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411083</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>595.5275127043988</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586603</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
